--- a/Oregon/WaterAllocation/ORwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Oregon/WaterAllocation/ORwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oregon\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F524FA2-1390-4DB0-8A01-E0AB0F23B091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEA6407-3841-471E-897E-D8A031F9629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="310">
   <si>
     <t>Name</t>
   </si>
@@ -279,9 +279,6 @@
     <t>OrganizationContactEmail</t>
   </si>
   <si>
-    <t>OrganizationDataMappingURL</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -765,9 +762,6 @@
     <t>https://www.oregon.gov/OWRD/access_Data/Pages/Data.aspx</t>
   </si>
   <si>
-    <t>Surface/Ground/Storage</t>
-  </si>
-  <si>
     <t>(blank)</t>
   </si>
   <si>
@@ -781,9 +775,6 @@
   </si>
   <si>
     <t>wrd_dl_Director@oregon.gov</t>
-  </si>
-  <si>
-    <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Oregon</t>
   </si>
   <si>
     <t>source</t>
@@ -1058,6 +1049,12 @@
   </si>
   <si>
     <t>pod_link</t>
+  </si>
+  <si>
+    <t>Surface Ground Storage</t>
+  </si>
+  <si>
+    <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Oregon/Regulatory</t>
   </si>
 </sst>
 </file>
@@ -2454,7 +2451,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="A8:B9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2465,36 +2462,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2502,12 +2499,12 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2517,10 +2514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2559,13 +2556,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2606,7 +2603,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2623,7 +2620,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>38</v>
@@ -2635,10 +2632,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2655,7 +2652,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
@@ -2667,10 +2664,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2687,7 +2684,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>38</v>
@@ -2702,7 +2699,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2719,7 +2716,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>38</v>
@@ -2734,7 +2731,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2751,7 +2748,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>38</v>
@@ -2763,10 +2760,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2783,7 +2780,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="86" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>38</v>
@@ -2796,7 +2793,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2813,7 +2810,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>38</v>
@@ -2825,10 +2822,10 @@
         <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -2845,7 +2842,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>38</v>
@@ -2857,10 +2854,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2877,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>38</v>
@@ -2889,10 +2886,35 @@
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2901,9 +2923,10 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" xr:uid="{71F0EC10-9D7E-4D82-9610-35DD4A1449D5}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{2487AB0C-7B5C-48BA-8C71-C6C5A89527C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2951,13 +2974,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2992,7 +3015,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3009,7 +3032,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="44"/>
@@ -3017,10 +3040,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3048,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3065,7 +3088,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
@@ -3073,10 +3096,10 @@
         <v>38</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3093,7 +3116,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -3101,10 +3124,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3121,7 +3144,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
@@ -3129,10 +3152,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3149,7 +3172,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
@@ -3157,10 +3180,10 @@
         <v>38</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3188,7 +3211,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3205,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
@@ -3213,10 +3236,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3233,7 +3256,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
@@ -3241,10 +3264,10 @@
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3261,7 +3284,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
@@ -3269,10 +3292,10 @@
         <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3286,10 +3309,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3328,13 +3351,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3375,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3392,7 +3415,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="44"/>
@@ -3400,10 +3423,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3420,7 +3443,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
@@ -3428,10 +3451,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3448,7 +3471,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
@@ -3456,15 +3479,15 @@
         <v>38</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>34</v>
@@ -3476,7 +3499,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -3484,15 +3507,15 @@
         <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="J7" s="62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>34</v>
@@ -3504,7 +3527,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
@@ -3512,27 +3535,27 @@
         <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="J8" s="62" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
@@ -3540,27 +3563,27 @@
         <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="J9" s="62" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>265</v>
+      <c r="E10" s="74" t="s">
+        <v>239</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="20"/>
@@ -3568,18 +3591,18 @@
         <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="J10" s="62" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>38</v>
@@ -3587,8 +3610,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="74" t="s">
-        <v>240</v>
+      <c r="E11" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
@@ -3596,39 +3619,14 @@
         <v>38</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J11" s="62" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>186</v>
-      </c>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19"/>
@@ -3651,15 +3649,12 @@
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A25">
-    <sortCondition ref="A17:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:A24">
+    <sortCondition ref="A16:A24"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{640520A0-1734-4545-8EF4-6BA20231EBA5}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{640520A0-1734-4545-8EF4-6BA20231EBA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3710,13 +3705,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3755,7 +3750,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3772,7 +3767,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>38</v>
@@ -3782,10 +3777,10 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3802,7 +3797,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="72" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
@@ -3815,7 +3810,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3832,7 +3827,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="72" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>38</v>
@@ -3845,7 +3840,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3862,7 +3857,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>38</v>
@@ -3872,10 +3867,10 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3895,17 +3890,17 @@
         <v>38</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3922,7 +3917,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>38</v>
@@ -3935,7 +3930,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -3952,20 +3947,20 @@
         <v>20</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4029,13 +4024,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4074,7 +4069,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4089,7 +4084,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>38</v>
@@ -4099,10 +4094,10 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4110,7 +4105,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>18</v>
@@ -4119,7 +4114,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
@@ -4129,10 +4124,10 @@
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4149,7 +4144,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>38</v>
@@ -4159,10 +4154,10 @@
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4170,7 +4165,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>18</v>
@@ -4179,7 +4174,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>38</v>
@@ -4192,7 +4187,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4209,7 +4204,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>38</v>
@@ -4219,10 +4214,10 @@
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4239,7 +4234,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -4250,7 +4245,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="18"/>
       <c r="J9" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4267,7 +4262,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -4280,7 +4275,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4288,7 +4283,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>18</v>
@@ -4297,7 +4292,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -4310,7 +4305,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4318,7 +4313,7 @@
         <v>65</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>18</v>
@@ -4327,7 +4322,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -4340,7 +4335,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4357,20 +4352,20 @@
         <v>38</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4387,20 +4382,20 @@
         <v>38</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4417,7 +4412,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -4430,7 +4425,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4447,7 +4442,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -4460,12 +4455,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4477,7 +4472,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -4487,7 +4482,7 @@
       </c>
       <c r="H17" s="77"/>
       <c r="I17" s="78" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J17" s="77"/>
     </row>
@@ -4505,7 +4500,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>38</v>
@@ -4514,13 +4509,13 @@
         <v>38</v>
       </c>
       <c r="H18" s="75" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J18" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4540,17 +4535,17 @@
         <v>38</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="18">
         <v>3703994</v>
       </c>
       <c r="J19" s="62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4567,7 +4562,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -4577,10 +4572,10 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J20" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="168" x14ac:dyDescent="0.3">
@@ -4597,20 +4592,20 @@
         <v>20</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J21" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4627,7 +4622,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>38</v>
@@ -4637,10 +4632,10 @@
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J22" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4657,7 +4652,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>38</v>
@@ -4670,7 +4665,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4686,7 +4681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -4726,13 +4721,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4746,7 +4741,7 @@
     </row>
     <row r="3" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="52" t="s">
         <v>33</v>
@@ -4767,7 +4762,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -4799,7 +4794,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -4831,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -4863,7 +4858,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -4895,7 +4890,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
@@ -4927,12 +4922,12 @@
         <v>371091</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B9" s="52" t="s">
         <v>34</v>
@@ -4944,7 +4939,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="48"/>
@@ -4966,7 +4961,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>38</v>
@@ -4981,7 +4976,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4998,7 +4993,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5013,7 +5008,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5030,7 +5025,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5045,7 +5040,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5062,7 +5057,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>38</v>
@@ -5077,7 +5072,7 @@
         <v>38</v>
       </c>
       <c r="J13" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5094,7 +5089,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>38</v>
@@ -5109,12 +5104,12 @@
         <v>38</v>
       </c>
       <c r="J14" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="52" t="s">
         <v>33</v>
@@ -5126,7 +5121,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>38</v>
@@ -5141,12 +5136,12 @@
         <v>5363</v>
       </c>
       <c r="J15" s="62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>68</v>
@@ -5158,7 +5153,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>38</v>
@@ -5170,15 +5165,15 @@
         <v>38</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>68</v>
@@ -5190,7 +5185,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -5202,15 +5197,15 @@
         <v>38</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>34</v>
@@ -5222,7 +5217,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>38</v>
@@ -5234,15 +5229,15 @@
         <v>38</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J18" s="62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>15</v>
@@ -5254,7 +5249,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>38</v>
@@ -5266,15 +5261,15 @@
         <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J19" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>34</v>
@@ -5286,7 +5281,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>38</v>
@@ -5298,15 +5293,15 @@
         <v>38</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J20" s="62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>69</v>
@@ -5321,10 +5316,10 @@
         <v>38</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H21" s="66" t="s">
         <v>38</v>
@@ -5333,12 +5328,12 @@
         <v>38</v>
       </c>
       <c r="J21" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>33</v>
@@ -5350,7 +5345,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>38</v>
@@ -5365,12 +5360,12 @@
         <v>5200</v>
       </c>
       <c r="J22" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="79" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B23" s="52" t="s">
         <v>69</v>
@@ -5385,10 +5380,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H23" s="80" t="s">
         <v>38</v>
@@ -5397,12 +5392,12 @@
         <v>1</v>
       </c>
       <c r="J23" s="82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>34</v>
@@ -5414,7 +5409,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>38</v>
@@ -5426,15 +5421,15 @@
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>34</v>
@@ -5449,24 +5444,24 @@
         <v>38</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H25" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J25" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>34</v>
@@ -5478,27 +5473,27 @@
         <v>38</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H26" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J26" s="62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>33</v>
@@ -5513,24 +5508,24 @@
         <v>38</v>
       </c>
       <c r="F27" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G27" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="G27" s="25" t="s">
-        <v>304</v>
-      </c>
       <c r="H27" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J27" s="62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="37" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>15</v>
@@ -5542,7 +5537,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F28" s="34" t="s">
         <v>38</v>
@@ -5557,15 +5552,15 @@
         <v>38</v>
       </c>
       <c r="J28" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
@@ -5574,13 +5569,13 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H29" s="66" t="s">
         <v>38</v>
@@ -5589,15 +5584,15 @@
         <v>44196</v>
       </c>
       <c r="J29" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
@@ -5606,13 +5601,13 @@
         <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H30" s="66" t="s">
         <v>38</v>
@@ -5621,12 +5616,12 @@
         <v>43831</v>
       </c>
       <c r="J30" s="62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="51" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>34</v>
@@ -5638,27 +5633,27 @@
         <v>20</v>
       </c>
       <c r="E31" s="61" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H31" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="79" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B32" s="52" t="s">
         <v>69</v>
@@ -5673,10 +5668,10 @@
         <v>38</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H32" s="80" t="s">
         <v>38</v>
@@ -5685,12 +5680,12 @@
         <v>0</v>
       </c>
       <c r="J32" s="82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>34</v>
@@ -5705,10 +5700,10 @@
         <v>38</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H33" s="66" t="s">
         <v>38</v>
@@ -5717,12 +5712,12 @@
         <v>38</v>
       </c>
       <c r="J33" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>34</v>
@@ -5734,7 +5729,7 @@
         <v>38</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F34" s="34" t="s">
         <v>38</v>
@@ -5746,15 +5741,15 @@
         <v>38</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J34" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>15</v>
@@ -5766,7 +5761,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F35" s="34" t="s">
         <v>38</v>
@@ -5778,15 +5773,15 @@
         <v>38</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J35" s="62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="51" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>15</v>
@@ -5798,7 +5793,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F36" s="34" t="s">
         <v>38</v>
@@ -5810,15 +5805,15 @@
         <v>38</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J36" s="62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" s="52" t="s">
         <v>33</v>
@@ -5830,7 +5825,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F37" s="34" t="s">
         <v>38</v>
@@ -5845,12 +5840,12 @@
         <v>43874</v>
       </c>
       <c r="J37" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>15</v>
@@ -5862,7 +5857,7 @@
         <v>38</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F38" s="34" t="s">
         <v>38</v>
@@ -5877,15 +5872,15 @@
         <v>33187</v>
       </c>
       <c r="J38" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="79" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C39" s="53" t="s">
         <v>18</v>
@@ -5908,7 +5903,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>69</v>
@@ -5920,7 +5915,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F40" s="34" t="s">
         <v>38</v>
@@ -5935,12 +5930,12 @@
         <v>38</v>
       </c>
       <c r="J40" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>69</v>
@@ -5955,22 +5950,22 @@
         <v>38</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H41" s="73"/>
       <c r="I41" s="66" t="s">
         <v>38</v>
       </c>
       <c r="J41" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>15</v>
@@ -5994,15 +5989,15 @@
         <v>38</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J42" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -6014,7 +6009,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>38</v>
@@ -6029,12 +6024,12 @@
         <v>38</v>
       </c>
       <c r="J43" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6046,7 +6041,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>38</v>
@@ -6058,10 +6053,10 @@
         <v>38</v>
       </c>
       <c r="I44" s="66" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J44" s="62" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6072,7 +6067,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>33</v>
@@ -6084,7 +6079,7 @@
         <v>38</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F45" s="34" t="s">
         <v>38</v>
@@ -6099,12 +6094,12 @@
         <v>38</v>
       </c>
       <c r="J45" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>16</v>
@@ -6116,7 +6111,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F46" s="34" t="s">
         <v>38</v>
@@ -6128,18 +6123,18 @@
         <v>38</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J46" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="51" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="53" t="s">
         <v>18</v>
@@ -6148,7 +6143,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F47" s="34" t="s">
         <v>38</v>
@@ -6160,15 +6155,15 @@
         <v>38</v>
       </c>
       <c r="I47" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J47" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>34</v>
@@ -6183,19 +6178,19 @@
         <v>38</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H48" s="66" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J48" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Oregon/WaterAllocation/ORwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Oregon/WaterAllocation/ORwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oregon\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEA6407-3841-471E-897E-D8A031F9629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11C8FAD-2643-4EE2-9238-8A9DBBC623FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="316">
   <si>
     <t>Name</t>
   </si>
@@ -806,9 +806,6 @@
   </si>
   <si>
     <t>OR</t>
-  </si>
-  <si>
-    <t>snp_id</t>
   </si>
   <si>
     <t>claim_char</t>
@@ -875,6 +872,174 @@
     </r>
   </si>
   <si>
+    <t>name last, name first, name_company</t>
+  </si>
+  <si>
+    <t>Water right surface Points of Diversion (POD) and groundwater Points of Appropriation (POA) locations in the state of Oregon are collectively referred to as PODs.</t>
+  </si>
+  <si>
+    <t>OwnerClassificationCV</t>
+  </si>
+  <si>
+    <t>Army (USA)</t>
+  </si>
+  <si>
+    <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>ORwr_WS + counter</t>
+  </si>
+  <si>
+    <t>ORwr_S + counter</t>
+  </si>
+  <si>
+    <t>PODorPOUSite</t>
+  </si>
+  <si>
+    <t>POD</t>
+  </si>
+  <si>
+    <t>I think pod_nbr is just the number for that POD number for that WR.</t>
+  </si>
+  <si>
+    <t>get from sites.csv</t>
+  </si>
+  <si>
+    <t>get from watersource.csv</t>
+  </si>
+  <si>
+    <t>AllocationFlow_CFS</t>
+  </si>
+  <si>
+    <t>AllocationVolume_AF</t>
+  </si>
+  <si>
+    <t>ExemptOfVolumeFlowPriority</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>*need to produce this with a new script</t>
+  </si>
+  <si>
+    <t>rate_cfs</t>
+  </si>
+  <si>
+    <t>acre_feet</t>
+  </si>
+  <si>
+    <t>duty</t>
+  </si>
+  <si>
+    <t>ORwr_M1</t>
+  </si>
+  <si>
+    <t>ORwr_V1</t>
+  </si>
+  <si>
+    <t>ORwr_O1</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>ORwr_WR + counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>This product is for informational purposes and may not have been prepared for, or be suitable for legal, engineering, or surveying purposes. Users of this information should review or consult the primary data and information sources to ascertain the usability of the information.</t>
+  </si>
+  <si>
+    <t>Oregon Water Rights Method</t>
+  </si>
+  <si>
+    <t>https://arcgis.wrd.state.or.us/data/OWRD_WR_GIS_procedures.pdf</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
+  </si>
+  <si>
+    <t>use custom ID</t>
+  </si>
+  <si>
+    <t>ST: storage
+GW: groundwater
+SW: surface water</t>
+  </si>
+  <si>
+    <t>create in arcgis</t>
+  </si>
+  <si>
+    <t>GR: groundwater registrations
+PC: power claim
+SW: surface water registrations
+KL: Klamath Adjudication claim
+KA: Klamath Adjudication</t>
+  </si>
+  <si>
+    <t>*use todays date.</t>
+  </si>
+  <si>
+    <t>*use speical code</t>
+  </si>
+  <si>
+    <t>pod_location_id,
+pou_use_id</t>
+  </si>
+  <si>
+    <t>POD
+POU</t>
+  </si>
+  <si>
+    <t>Latitude
+cent_Latit</t>
+  </si>
+  <si>
+    <t>Longitude
+cent_Longi</t>
+  </si>
+  <si>
+    <t>priority_date
+priority_d</t>
+  </si>
+  <si>
+    <t>use_code_description
+use_code_d</t>
+  </si>
+  <si>
+    <t>wris_acres</t>
+  </si>
+  <si>
+    <t>POU</t>
+  </si>
+  <si>
+    <t>It does appear that this data has the flow tied to the site, not the wr.  Meaning a single wr will have multiple flow vlaues, which we don't allow for WaDE.</t>
+  </si>
+  <si>
+    <t>Flow by site changes depending on the start and end month.</t>
+  </si>
+  <si>
+    <t>pod_link</t>
+  </si>
+  <si>
+    <t>Surface Ground Storage</t>
+  </si>
+  <si>
+    <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Oregon/Regulatory</t>
+  </si>
+  <si>
+    <t>Mapping Notes</t>
+  </si>
+  <si>
+    <t>had to create a long and lat value for both pod and pou sites.</t>
+  </si>
+  <si>
+    <t>Data from single gis download, contains both POD and POU info.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -884,7 +1049,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PoU metadata:</t>
+      <t>POU metadata:</t>
     </r>
     <r>
       <rPr>
@@ -898,163 +1063,16 @@
     </r>
   </si>
   <si>
-    <t>name last, name first, name_company</t>
-  </si>
-  <si>
-    <t>Water right surface Points of Diversion (POD) and groundwater Points of Appropriation (POA) locations in the state of Oregon are collectively referred to as PODs.</t>
-  </si>
-  <si>
-    <t>OwnerClassificationCV</t>
-  </si>
-  <si>
-    <t>Army (USA)</t>
-  </si>
-  <si>
-    <t>WSWC defined owner tag.</t>
-  </si>
-  <si>
-    <t>ORwr_WS + counter</t>
-  </si>
-  <si>
-    <t>ORwr_S + counter</t>
-  </si>
-  <si>
-    <t>PODorPOUSite</t>
-  </si>
-  <si>
-    <t>POD</t>
-  </si>
-  <si>
-    <t>I think pod_nbr is just the number for that POD number for that WR.</t>
-  </si>
-  <si>
-    <t>get from sites.csv</t>
-  </si>
-  <si>
-    <t>get from watersource.csv</t>
-  </si>
-  <si>
-    <t>AllocationFlow_CFS</t>
-  </si>
-  <si>
-    <t>AllocationVolume_AF</t>
-  </si>
-  <si>
-    <t>ExemptOfVolumeFlowPriority</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>*need to produce this with a new script</t>
-  </si>
-  <si>
-    <t>rate_cfs</t>
-  </si>
-  <si>
-    <t>acre_feet</t>
-  </si>
-  <si>
-    <t>duty</t>
-  </si>
-  <si>
-    <t>ORwr_M1</t>
-  </si>
-  <si>
-    <t>ORwr_V1</t>
-  </si>
-  <si>
-    <t>ORwr_O1</t>
-  </si>
-  <si>
-    <t>AllocationUUID</t>
-  </si>
-  <si>
-    <t>ORwr_WR + counter</t>
-  </si>
-  <si>
-    <t>PrimaryBeneficialUseCategory</t>
-  </si>
-  <si>
-    <t>This product is for informational purposes and may not have been prepared for, or be suitable for legal, engineering, or surveying purposes. Users of this information should review or consult the primary data and information sources to ascertain the usability of the information.</t>
-  </si>
-  <si>
-    <t>Oregon Water Rights Method</t>
-  </si>
-  <si>
-    <t>https://arcgis.wrd.state.or.us/data/OWRD_WR_GIS_procedures.pdf</t>
-  </si>
-  <si>
-    <t>Legal Processes</t>
-  </si>
-  <si>
-    <t>use custom ID</t>
-  </si>
-  <si>
-    <t>ST: storage
-GW: groundwater
-SW: surface water</t>
-  </si>
-  <si>
-    <t>create in arcgis</t>
-  </si>
-  <si>
-    <t>GR: groundwater registrations
-PC: power claim
-SW: surface water registrations
-KL: Klamath Adjudication claim
-KA: Klamath Adjudication</t>
-  </si>
-  <si>
-    <t>*use todays date.</t>
-  </si>
-  <si>
-    <t>*use speical code</t>
-  </si>
-  <si>
-    <t>pod_location_id,
-pou_use_id</t>
-  </si>
-  <si>
-    <t>POD
-POU</t>
-  </si>
-  <si>
-    <t>Latitude
-cent_Latit</t>
-  </si>
-  <si>
-    <t>Longitude
-cent_Longi</t>
-  </si>
-  <si>
-    <t>priority_date
-priority_d</t>
-  </si>
-  <si>
-    <t>use_code_description
-use_code_d</t>
-  </si>
-  <si>
-    <t>wris_acres</t>
-  </si>
-  <si>
-    <t>POU</t>
-  </si>
-  <si>
-    <t>It does appear that this data has the flow tied to the site, not the wr.  Meaning a single wr will have multiple flow vlaues, which we don't allow for WaDE.</t>
-  </si>
-  <si>
-    <t>Flow by site changes depending on the start and end month.</t>
-  </si>
-  <si>
-    <t>pod_link</t>
-  </si>
-  <si>
-    <t>Surface Ground Storage</t>
-  </si>
-  <si>
-    <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Oregon/Regulatory</t>
+    <t>did simplify the pou.zip with mapshaper</t>
+  </si>
+  <si>
+    <t>General Notes</t>
+  </si>
+  <si>
+    <t>snp_id</t>
+  </si>
+  <si>
+    <t>snp_id is the better allocation id as they don't break records up by site.</t>
   </si>
 </sst>
 </file>
@@ -2152,9 +2170,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2192,7 +2210,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2298,7 +2316,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2440,7 +2458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2448,10 +2466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2481,30 +2499,53 @@
         <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>306</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2620,7 +2661,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>38</v>
@@ -2652,7 +2693,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
@@ -2780,7 +2821,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="86" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>38</v>
@@ -2810,7 +2851,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>38</v>
@@ -2842,7 +2883,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>38</v>
@@ -2874,7 +2915,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>38</v>
@@ -2903,7 +2944,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="74" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
@@ -3032,7 +3073,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="44"/>
@@ -3415,7 +3456,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="44"/>
@@ -3555,7 +3596,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
@@ -3666,7 +3707,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3767,7 +3808,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>38</v>
@@ -3890,7 +3931,7 @@
         <v>38</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>245</v>
@@ -3917,7 +3958,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>38</v>
@@ -3947,10 +3988,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>246</v>
@@ -3984,7 +4025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -4084,7 +4125,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>38</v>
@@ -4352,13 +4393,13 @@
         <v>38</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="18" t="s">
@@ -4382,13 +4423,13 @@
         <v>38</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F14" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="25" t="s">
         <v>298</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>300</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="18">
@@ -4460,7 +4501,7 @@
     </row>
     <row r="17" spans="1:10" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4472,7 +4513,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>38</v>
@@ -4482,7 +4523,7 @@
       </c>
       <c r="H17" s="77"/>
       <c r="I17" s="78" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J17" s="77"/>
     </row>
@@ -4509,7 +4550,7 @@
         <v>38</v>
       </c>
       <c r="H18" s="75" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I18" s="64" t="s">
         <v>119</v>
@@ -4535,10 +4576,10 @@
         <v>38</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="18">
@@ -4681,8 +4722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4927,7 +4968,7 @@
     </row>
     <row r="9" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B9" s="52" t="s">
         <v>34</v>
@@ -4939,7 +4980,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="48"/>
@@ -4961,7 +5002,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>38</v>
@@ -4993,7 +5034,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5025,7 +5066,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5057,7 +5098,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>38</v>
@@ -5089,7 +5130,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>38</v>
@@ -5316,10 +5357,10 @@
         <v>38</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H21" s="66" t="s">
         <v>38</v>
@@ -5365,7 +5406,7 @@
     </row>
     <row r="23" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="79" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B23" s="52" t="s">
         <v>69</v>
@@ -5380,10 +5421,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H23" s="80" t="s">
         <v>38</v>
@@ -5444,10 +5485,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="H25" s="66" t="s">
         <v>38</v>
@@ -5473,13 +5514,13 @@
         <v>38</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H26" s="66" t="s">
         <v>38</v>
@@ -5508,10 +5549,10 @@
         <v>38</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H27" s="66" t="s">
         <v>38</v>
@@ -5569,13 +5610,13 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H29" s="66" t="s">
         <v>38</v>
@@ -5601,13 +5642,13 @@
         <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H30" s="66" t="s">
         <v>38</v>
@@ -5633,13 +5674,13 @@
         <v>20</v>
       </c>
       <c r="E31" s="61" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H31" s="66" t="s">
         <v>38</v>
@@ -5653,7 +5694,7 @@
     </row>
     <row r="32" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="79" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B32" s="52" t="s">
         <v>69</v>
@@ -5668,10 +5709,10 @@
         <v>38</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H32" s="80" t="s">
         <v>38</v>
@@ -5700,10 +5741,10 @@
         <v>38</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H33" s="66" t="s">
         <v>38</v>
@@ -5825,7 +5866,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F37" s="34" t="s">
         <v>38</v>
@@ -5877,10 +5918,10 @@
     </row>
     <row r="39" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="79" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C39" s="53" t="s">
         <v>18</v>
@@ -5950,10 +5991,10 @@
         <v>38</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H41" s="73"/>
       <c r="I41" s="66" t="s">
@@ -6029,7 +6070,7 @@
     </row>
     <row r="44" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6041,7 +6082,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>38</v>
@@ -6053,10 +6094,10 @@
         <v>38</v>
       </c>
       <c r="I44" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J44" s="62" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6131,7 +6172,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="51" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B47" s="52" t="s">
         <v>104</v>
@@ -6143,7 +6184,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F47" s="34" t="s">
         <v>38</v>
@@ -6178,10 +6219,10 @@
         <v>38</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H48" s="66" t="s">
         <v>38</v>
